--- a/corpusPreparation/input/meta_data_excel.xlsx
+++ b/corpusPreparation/input/meta_data_excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="27860" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="340" yWindow="440" windowWidth="26720" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="author_data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="263">
   <si>
     <t>i_saw_her_standing_there</t>
   </si>
@@ -329,9 +329,6 @@
     <t>what_goes_on</t>
   </si>
   <si>
-    <t>mccartney, lennon, starkey</t>
-  </si>
-  <si>
     <t>girl</t>
   </si>
   <si>
@@ -410,18 +407,9 @@
     <t>fixing_a_hole</t>
   </si>
   <si>
-    <t>shes_leaving_you</t>
-  </si>
-  <si>
-    <t>being_for_the_benefit_of_mr_kite!</t>
-  </si>
-  <si>
     <t>within_you_without_you</t>
   </si>
   <si>
-    <t>when_im_sixty-four</t>
-  </si>
-  <si>
     <t>lovely_rita</t>
   </si>
   <si>
@@ -813,6 +801,21 @@
   </si>
   <si>
     <t>oh_darling</t>
+  </si>
+  <si>
+    <t>mccartney</t>
+  </si>
+  <si>
+    <t>lennon</t>
+  </si>
+  <si>
+    <t>shes_leaving_home</t>
+  </si>
+  <si>
+    <t>being_for_the_benefit_of_mr_kite</t>
+  </si>
+  <si>
+    <t>when_im_sixty_four</t>
   </si>
 </sst>
 </file>
@@ -1127,15 +1130,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.1640625" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1148,10 +1151,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1165,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1179,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1193,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1207,7 +1210,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1218,10 +1221,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1232,10 +1235,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1246,10 +1249,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1260,10 +1263,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1277,7 +1280,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1288,10 +1291,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1305,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1316,10 +1319,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1333,7 +1336,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1344,10 +1347,10 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D15" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1358,10 +1361,10 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1372,10 +1375,10 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1389,7 +1392,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1403,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1417,7 +1420,7 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1431,7 +1434,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1445,7 +1448,7 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1456,10 +1459,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D23" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1473,7 +1476,7 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1487,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1501,7 +1504,7 @@
         <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1512,10 +1515,10 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D27" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1529,7 +1532,7 @@
         <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1540,10 +1543,10 @@
         <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D29" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1554,10 +1557,10 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D30" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1568,10 +1571,10 @@
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D31" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1582,10 +1585,10 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D32" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1596,10 +1599,10 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D33" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1610,10 +1613,10 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D34" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1624,10 +1627,10 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D35" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1638,10 +1641,10 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D36" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1652,10 +1655,10 @@
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D37" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1666,10 +1669,10 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D38" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1680,10 +1683,10 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D39" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1694,10 +1697,10 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D40" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1708,10 +1711,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D41" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1722,10 +1725,10 @@
         <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D42" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1736,10 +1739,10 @@
         <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D43" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1753,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1767,7 +1770,7 @@
         <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1778,10 +1781,10 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D46" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1795,7 +1798,7 @@
         <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1809,7 +1812,7 @@
         <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1820,10 +1823,10 @@
         <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D49" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1837,7 +1840,7 @@
         <v>68</v>
       </c>
       <c r="D50" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1851,7 +1854,7 @@
         <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1862,10 +1865,10 @@
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1876,10 +1879,10 @@
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D53" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1890,10 +1893,10 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1907,7 +1910,7 @@
         <v>70</v>
       </c>
       <c r="D55" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1918,10 +1921,10 @@
         <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D56" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1932,10 +1935,10 @@
         <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D57" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1946,10 +1949,10 @@
         <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D58" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1963,7 +1966,7 @@
         <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1974,10 +1977,10 @@
         <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D60" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1988,10 +1991,10 @@
         <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D61" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2002,10 +2005,10 @@
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D62" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2019,7 +2022,7 @@
         <v>83</v>
       </c>
       <c r="D63" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2030,10 +2033,10 @@
         <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D64" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2047,7 +2050,7 @@
         <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2058,10 +2061,10 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D66" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2072,10 +2075,10 @@
         <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D67" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2086,10 +2089,10 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D68" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2103,7 +2106,7 @@
         <v>90</v>
       </c>
       <c r="D69" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2114,10 +2117,10 @@
         <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D70" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2128,10 +2131,10 @@
         <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D71" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2142,10 +2145,10 @@
         <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D72" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2156,10 +2159,10 @@
         <v>92</v>
       </c>
       <c r="C73" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D73" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2173,7 +2176,7 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2187,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2198,10 +2201,10 @@
         <v>92</v>
       </c>
       <c r="C76" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D76" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2212,43 +2215,43 @@
         <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
         <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D78" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B79" t="s">
         <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D79" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
         <v>92</v>
@@ -2257,12 +2260,12 @@
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B81" t="s">
         <v>92</v>
@@ -2271,12 +2274,12 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B82" t="s">
         <v>92</v>
@@ -2285,1729 +2288,1743 @@
         <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
         <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D83" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" t="s">
         <v>107</v>
-      </c>
-      <c r="B84" t="s">
-        <v>108</v>
       </c>
       <c r="C84" t="s">
         <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C85" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D85" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D86" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C88" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D88" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C89" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D89" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C90" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D90" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C91" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D91" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C92" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D92" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C93" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D93" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D94" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C95" t="s">
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C96" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D96" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C97" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D97" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C98" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D98" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C99" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D99" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C100" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D100" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B101" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C101" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D101" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B102" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C102" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D102" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>127</v>
+        <v>260</v>
       </c>
       <c r="B103" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C103" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D103" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>128</v>
+        <v>261</v>
       </c>
       <c r="B104" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C104" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D104" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C105" t="s">
         <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C106" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D106" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C107" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D107" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C108" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D108" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C109" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D109" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B111" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C111" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D111" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B112" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C112" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D112" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B113" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C113" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D113" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B114" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C114" t="s">
         <v>26</v>
       </c>
       <c r="D114" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B115" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D115" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B116" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C116" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D116" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B117" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C117" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D117" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C118" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D118" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B119" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C119" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D119" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B120" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B121" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C121" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D121" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B122" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C122" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D122" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B123" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C123" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D123" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B124" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C124" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D124" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B125" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C125" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D125" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B126" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C126" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D126" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B127" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C127" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D127" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B128" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C128" t="s">
         <v>26</v>
       </c>
       <c r="D128" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B129" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C129" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D129" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B130" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C130" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D130" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B131" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C131" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D131" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B132" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C132" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D132" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B133" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C133" t="s">
         <v>26</v>
       </c>
       <c r="D133" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B134" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C134" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D134" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B135" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C135" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D135" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B136" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C136" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D136" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B137" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C137" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D137" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B138" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C138" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B139" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C139" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D139" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B140" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D140" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B141" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D141" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B142" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D142" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B143" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D143" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B144" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B145" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C145" t="s">
         <v>26</v>
       </c>
       <c r="D145" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C146" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D146" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C147" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D147" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C148" t="s">
         <v>26</v>
       </c>
       <c r="D148" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C149" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D149" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C150" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D150" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B151" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C151" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D151" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B152" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C152" t="s">
         <v>26</v>
       </c>
       <c r="D152" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B153" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C153" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D153" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B154" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C154" t="s">
         <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B155" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C155" t="s">
         <v>26</v>
       </c>
       <c r="D155" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B156" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C156" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D156" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B157" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C157" t="s">
         <v>26</v>
       </c>
       <c r="D157" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B158" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C158" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D158" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B159" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C159" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D159" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B160" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C160" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D160" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B161" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C161" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D161" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B162" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C162" t="s">
         <v>26</v>
       </c>
       <c r="D162" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B163" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C163" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D163" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B164" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C164" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D164" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B165" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C165" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D165" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B166" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C166" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D166" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B167" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C167" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D167" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B168" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C168" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D168" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B169" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C169" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D169" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B170" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C170" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D170" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B171" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C171" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D171" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B172" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C172" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D172" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B173" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C173" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D173" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B174" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C174" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D174" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B175" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C175" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D175" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B176" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C176" t="s">
         <v>26</v>
       </c>
       <c r="D176" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B177" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C177" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="D177" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B178" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C178" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D178" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B179" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B180" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C180" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D180" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B181" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C181" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D181" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B182" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C182" t="s">
         <v>26</v>
       </c>
       <c r="D182" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B183" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C183" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D183" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B184" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C184" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D184" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B185" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
       </c>
       <c r="D185" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B186" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C186" t="s">
         <v>2</v>
       </c>
       <c r="D186" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B187" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
       </c>
       <c r="D187" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B188" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B189" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C189" t="s">
         <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B190" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C190" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="D190" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B191" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C191" t="s">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="D191" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B192" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C192" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D192" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B193" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C193" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D193" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B194" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C194" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D194" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B195" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C195" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D195" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B196" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C196" t="s">
         <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B197" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C197" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D197" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B198" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C198" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D198" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B199" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C199" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D199" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B200" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C200" t="s">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="D200" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B201" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C201" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D201" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B202" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C202" t="s">
-        <v>2</v>
+        <v>258</v>
       </c>
       <c r="D202" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B203" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C203" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="D203" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B204" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C204" t="s">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="D204" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B205" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C205" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D205" t="s">
-        <v>250</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>245</v>
+      </c>
+      <c r="B206" t="s">
+        <v>210</v>
+      </c>
+      <c r="C206" t="s">
+        <v>259</v>
+      </c>
+      <c r="D206" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
